--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Liph-Lpar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Liph-Lpar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,40 +549,40 @@
         <v>0.668329</v>
       </c>
       <c r="I2">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J2">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.2314755</v>
+        <v>0.7073339999999999</v>
       </c>
       <c r="N2">
-        <v>0.462951</v>
+        <v>1.414668</v>
       </c>
       <c r="O2">
-        <v>0.04937823590113709</v>
+        <v>0.0898252225897184</v>
       </c>
       <c r="P2">
-        <v>0.0346719884939725</v>
+        <v>0.0638127393172816</v>
       </c>
       <c r="Q2">
-        <v>0.0515672631465</v>
+        <v>0.157577274962</v>
       </c>
       <c r="R2">
-        <v>0.309403578879</v>
+        <v>0.9454636497719998</v>
       </c>
       <c r="S2">
-        <v>0.02588500316813616</v>
+        <v>0.02393920578348847</v>
       </c>
       <c r="T2">
-        <v>0.01916272511961098</v>
+        <v>0.02080342951762915</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.668329</v>
       </c>
       <c r="I3">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J3">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -629,10 +629,10 @@
         <v>0.56656</v>
       </c>
       <c r="O3">
-        <v>0.0402860969910397</v>
+        <v>0.0239827192012217</v>
       </c>
       <c r="P3">
-        <v>0.04243162192358384</v>
+        <v>0.02555634649797625</v>
       </c>
       <c r="Q3">
         <v>0.04207205313777777</v>
@@ -641,10 +641,10 @@
         <v>0.3786484782399999</v>
       </c>
       <c r="S3">
-        <v>0.02111873235675658</v>
+        <v>0.006391603979964781</v>
       </c>
       <c r="T3">
-        <v>0.02345136643784504</v>
+        <v>0.00833155979177303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>0.668329</v>
       </c>
       <c r="I4">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J4">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.865619666666667</v>
+        <v>1.534638333333333</v>
       </c>
       <c r="N4">
-        <v>5.596859</v>
+        <v>4.603915</v>
       </c>
       <c r="O4">
-        <v>0.3979730381939661</v>
+        <v>0.1948856267143685</v>
       </c>
       <c r="P4">
-        <v>0.419167969937178</v>
+        <v>0.2076730566704856</v>
       </c>
       <c r="Q4">
-        <v>0.4156159087345556</v>
+        <v>0.3418811008927778</v>
       </c>
       <c r="R4">
-        <v>3.740543178611</v>
+        <v>3.076929908034999</v>
       </c>
       <c r="S4">
-        <v>0.2086249775125393</v>
+        <v>0.05193872041340645</v>
       </c>
       <c r="T4">
-        <v>0.2316682986973153</v>
+        <v>0.06770296720336899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -735,10 +735,10 @@
         <v>0.668329</v>
       </c>
       <c r="I5">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J5">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.479631</v>
+        <v>0.7472894999999999</v>
       </c>
       <c r="N5">
-        <v>0.9592620000000001</v>
+        <v>1.494579</v>
       </c>
       <c r="O5">
-        <v>0.1023146409166339</v>
+        <v>0.09489922112673696</v>
       </c>
       <c r="P5">
-        <v>0.0718424218258629</v>
+        <v>0.06741735878388669</v>
       </c>
       <c r="Q5">
-        <v>0.106850435533</v>
+        <v>0.1664784147485</v>
       </c>
       <c r="R5">
-        <v>0.641102613198</v>
+        <v>0.9988704884909998</v>
       </c>
       <c r="S5">
-        <v>0.05363526573886358</v>
+        <v>0.02529147067769993</v>
       </c>
       <c r="T5">
-        <v>0.03970630590211118</v>
+        <v>0.02197856238002744</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,40 +797,40 @@
         <v>0.668329</v>
       </c>
       <c r="I6">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J6">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1539196666666667</v>
+        <v>3.722499666666667</v>
       </c>
       <c r="N6">
-        <v>0.461759</v>
+        <v>11.167499</v>
       </c>
       <c r="O6">
-        <v>0.03283406498956069</v>
+        <v>0.4727248529668953</v>
       </c>
       <c r="P6">
-        <v>0.03458271552494379</v>
+        <v>0.5037427173817483</v>
       </c>
       <c r="Q6">
-        <v>0.03428965896788889</v>
+        <v>0.8292848265745556</v>
       </c>
       <c r="R6">
-        <v>0.308606930711</v>
+        <v>7.463563439171001</v>
       </c>
       <c r="S6">
-        <v>0.01721223654039036</v>
+        <v>0.1259852990939225</v>
       </c>
       <c r="T6">
-        <v>0.01911338519304732</v>
+        <v>0.1642238873959784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.668329</v>
       </c>
       <c r="I7">
-        <v>0.524218872864595</v>
+        <v>0.2665087276525002</v>
       </c>
       <c r="J7">
-        <v>0.5526860717245075</v>
+        <v>0.3260074671640874</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.768305</v>
+        <v>0.973944</v>
       </c>
       <c r="N7">
-        <v>5.304914999999999</v>
+        <v>2.921832</v>
       </c>
       <c r="O7">
-        <v>0.3772139230076626</v>
+        <v>0.1236823574010591</v>
       </c>
       <c r="P7">
-        <v>0.3973032822944591</v>
+        <v>0.1317977813486214</v>
       </c>
       <c r="Q7">
-        <v>0.3939365041149999</v>
+        <v>0.216971673192</v>
       </c>
       <c r="R7">
-        <v>3.545428537034999</v>
+        <v>1.952745058728</v>
       </c>
       <c r="S7">
-        <v>0.197742657547909</v>
+        <v>0.03296242770401803</v>
       </c>
       <c r="T7">
-        <v>0.2195839903745777</v>
+        <v>0.04296706087531026</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,46 +915,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H8">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I8">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J8">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.2314755</v>
+        <v>0.7073339999999999</v>
       </c>
       <c r="N8">
-        <v>0.462951</v>
+        <v>1.414668</v>
       </c>
       <c r="O8">
-        <v>0.04937823590113709</v>
+        <v>0.0898252225897184</v>
       </c>
       <c r="P8">
-        <v>0.0346719884939725</v>
+        <v>0.0638127393172816</v>
       </c>
       <c r="Q8">
-        <v>0.007224427513499999</v>
+        <v>0.093798618628</v>
       </c>
       <c r="R8">
-        <v>0.043346565081</v>
+        <v>0.5627917117679999</v>
       </c>
       <c r="S8">
-        <v>0.00362641563008003</v>
+        <v>0.01424992553072227</v>
       </c>
       <c r="T8">
-        <v>0.002684643514907023</v>
+        <v>0.01238333986895726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H9">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I9">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J9">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -1001,22 +1001,22 @@
         <v>0.56656</v>
       </c>
       <c r="O9">
-        <v>0.0402860969910397</v>
+        <v>0.0239827192012217</v>
       </c>
       <c r="P9">
-        <v>0.04243162192358384</v>
+        <v>0.02555634649797625</v>
       </c>
       <c r="Q9">
-        <v>0.005894175484444444</v>
+        <v>0.02504358872888889</v>
       </c>
       <c r="R9">
-        <v>0.05304757935999999</v>
+        <v>0.22539229856</v>
       </c>
       <c r="S9">
-        <v>0.0029586745888559</v>
+        <v>0.003804632516221006</v>
       </c>
       <c r="T9">
-        <v>0.003285470016925599</v>
+        <v>0.004959400393701153</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H10">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I10">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J10">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.865619666666667</v>
+        <v>1.534638333333333</v>
       </c>
       <c r="N10">
-        <v>5.596859</v>
+        <v>4.603915</v>
       </c>
       <c r="O10">
-        <v>0.3979730381939661</v>
+        <v>0.1948856267143685</v>
       </c>
       <c r="P10">
-        <v>0.419167969937178</v>
+        <v>0.2076730566704856</v>
       </c>
       <c r="Q10">
-        <v>0.05822661166988888</v>
+        <v>0.2035063431988889</v>
       </c>
       <c r="R10">
-        <v>0.524039505029</v>
+        <v>1.83155708879</v>
       </c>
       <c r="S10">
-        <v>0.02922776846355098</v>
+        <v>0.03091676911698256</v>
       </c>
       <c r="T10">
-        <v>0.03245607249622316</v>
+        <v>0.04030051162024613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H11">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I11">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J11">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.479631</v>
+        <v>0.7472894999999999</v>
       </c>
       <c r="N11">
-        <v>0.9592620000000001</v>
+        <v>1.494579</v>
       </c>
       <c r="O11">
-        <v>0.1023146409166339</v>
+        <v>0.09489922112673696</v>
       </c>
       <c r="P11">
-        <v>0.0718424218258629</v>
+        <v>0.06741735878388669</v>
       </c>
       <c r="Q11">
-        <v>0.014969443387</v>
+        <v>0.099097064209</v>
       </c>
       <c r="R11">
-        <v>0.089816660322</v>
+        <v>0.594582385254</v>
       </c>
       <c r="S11">
-        <v>0.00751414881951185</v>
+        <v>0.01505486760835854</v>
       </c>
       <c r="T11">
-        <v>0.005562740997204329</v>
+        <v>0.0130828432664104</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1163,46 +1163,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H12">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I12">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J12">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1539196666666667</v>
+        <v>3.722499666666667</v>
       </c>
       <c r="N12">
-        <v>0.461759</v>
+        <v>11.167499</v>
       </c>
       <c r="O12">
-        <v>0.03283406498956069</v>
+        <v>0.4727248529668953</v>
       </c>
       <c r="P12">
-        <v>0.03458271552494379</v>
+        <v>0.5037427173817483</v>
       </c>
       <c r="Q12">
-        <v>0.004803884103222222</v>
+        <v>0.4936357174637779</v>
       </c>
       <c r="R12">
-        <v>0.043234956929</v>
+        <v>4.442721457174001</v>
       </c>
       <c r="S12">
-        <v>0.002411385589303008</v>
+        <v>0.07499334548903132</v>
       </c>
       <c r="T12">
-        <v>0.002677731130940321</v>
+        <v>0.09775504613325552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.03121033333333333</v>
+        <v>0.1326086666666667</v>
       </c>
       <c r="H13">
-        <v>0.09363099999999999</v>
+        <v>0.397826</v>
       </c>
       <c r="I13">
-        <v>0.07344157934966893</v>
+        <v>0.1586405813410514</v>
       </c>
       <c r="J13">
-        <v>0.07742975328264576</v>
+        <v>0.194057487602693</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.768305</v>
+        <v>0.973944</v>
       </c>
       <c r="N13">
-        <v>5.304914999999999</v>
+        <v>2.921832</v>
       </c>
       <c r="O13">
-        <v>0.3772139230076626</v>
+        <v>0.1236823574010591</v>
       </c>
       <c r="P13">
-        <v>0.3973032822944591</v>
+        <v>0.1317977813486214</v>
       </c>
       <c r="Q13">
-        <v>0.05518938848499998</v>
+        <v>0.129153415248</v>
       </c>
       <c r="R13">
-        <v>0.4967044963649999</v>
+        <v>1.162380737232</v>
       </c>
       <c r="S13">
-        <v>0.02770318625836716</v>
+        <v>0.0196210410797357</v>
       </c>
       <c r="T13">
-        <v>0.03076309512644533</v>
+        <v>0.02557634632012255</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,13 +1272,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H14">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I14">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J14">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2314755</v>
+        <v>0.7073339999999999</v>
       </c>
       <c r="N14">
-        <v>0.462951</v>
+        <v>1.414668</v>
       </c>
       <c r="O14">
-        <v>0.04937823590113709</v>
+        <v>0.0898252225897184</v>
       </c>
       <c r="P14">
-        <v>0.0346719884939725</v>
+        <v>0.0638127393172816</v>
       </c>
       <c r="Q14">
-        <v>0.01520018592075</v>
+        <v>0.3237305031179999</v>
       </c>
       <c r="R14">
-        <v>0.06080074368299999</v>
+        <v>1.294922012472</v>
       </c>
       <c r="S14">
-        <v>0.007629973683053165</v>
+        <v>0.04918127397750053</v>
       </c>
       <c r="T14">
-        <v>0.003765657599975265</v>
+        <v>0.02849270706894346</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H15">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I15">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J15">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1373,22 +1373,22 @@
         <v>0.56656</v>
       </c>
       <c r="O15">
-        <v>0.0402860969910397</v>
+        <v>0.0239827192012217</v>
       </c>
       <c r="P15">
-        <v>0.04243162192358384</v>
+        <v>0.02555634649797625</v>
       </c>
       <c r="Q15">
-        <v>0.01240133741333333</v>
+        <v>0.08643382703999999</v>
       </c>
       <c r="R15">
-        <v>0.07440802447999999</v>
+        <v>0.5186029622399999</v>
       </c>
       <c r="S15">
-        <v>0.006225047416638912</v>
+        <v>0.01313106329998402</v>
       </c>
       <c r="T15">
-        <v>0.004608416376337855</v>
+        <v>0.01141103645306221</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H16">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I16">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J16">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.865619666666667</v>
+        <v>1.534638333333333</v>
       </c>
       <c r="N16">
-        <v>5.596859</v>
+        <v>4.603915</v>
       </c>
       <c r="O16">
-        <v>0.3979730381939661</v>
+        <v>0.1948856267143685</v>
       </c>
       <c r="P16">
-        <v>0.419167969937178</v>
+        <v>0.2076730566704856</v>
       </c>
       <c r="Q16">
-        <v>0.1225087138411666</v>
+        <v>0.702368668485</v>
       </c>
       <c r="R16">
-        <v>0.7350522830469999</v>
+        <v>4.21421201091</v>
       </c>
       <c r="S16">
-        <v>0.06149518613958318</v>
+        <v>0.1067041430611867</v>
       </c>
       <c r="T16">
-        <v>0.04552502236595227</v>
+        <v>0.09272705784347623</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H17">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I17">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J17">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.479631</v>
+        <v>0.7472894999999999</v>
       </c>
       <c r="N17">
-        <v>0.9592620000000001</v>
+        <v>1.494579</v>
       </c>
       <c r="O17">
-        <v>0.1023146409166339</v>
+        <v>0.09489922112673696</v>
       </c>
       <c r="P17">
-        <v>0.0718424218258629</v>
+        <v>0.06741735878388669</v>
       </c>
       <c r="Q17">
-        <v>0.0314956890615</v>
+        <v>0.3420172164915</v>
       </c>
       <c r="R17">
-        <v>0.125982756246</v>
+        <v>1.368068865966</v>
       </c>
       <c r="S17">
-        <v>0.01580975916490718</v>
+        <v>0.05195939915232321</v>
       </c>
       <c r="T17">
-        <v>0.007802666460743088</v>
+        <v>0.03010218767823577</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H18">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I18">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J18">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1539196666666667</v>
+        <v>3.722499666666667</v>
       </c>
       <c r="N18">
-        <v>0.461759</v>
+        <v>11.167499</v>
       </c>
       <c r="O18">
-        <v>0.03283406498956069</v>
+        <v>0.4727248529668953</v>
       </c>
       <c r="P18">
-        <v>0.03458271552494379</v>
+        <v>0.5037427173817483</v>
       </c>
       <c r="Q18">
-        <v>0.01010736579116667</v>
+        <v>1.703702479941</v>
       </c>
       <c r="R18">
-        <v>0.060644194747</v>
+        <v>10.222214879646</v>
       </c>
       <c r="S18">
-        <v>0.005073552086380556</v>
+        <v>0.2588271961866498</v>
       </c>
       <c r="T18">
-        <v>0.003755961835500904</v>
+        <v>0.2249236412357663</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.06566649999999999</v>
+        <v>0.457677</v>
       </c>
       <c r="H19">
-        <v>0.131333</v>
+        <v>0.915354</v>
       </c>
       <c r="I19">
-        <v>0.1545209856895163</v>
+        <v>0.5475218714696504</v>
       </c>
       <c r="J19">
-        <v>0.1086080655751804</v>
+        <v>0.4465049984341785</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.768305</v>
+        <v>0.973944</v>
       </c>
       <c r="N19">
-        <v>5.304914999999999</v>
+        <v>2.921832</v>
       </c>
       <c r="O19">
-        <v>0.3772139230076626</v>
+        <v>0.1236823574010591</v>
       </c>
       <c r="P19">
-        <v>0.3973032822944591</v>
+        <v>0.1317977813486214</v>
       </c>
       <c r="Q19">
-        <v>0.1161184002825</v>
+        <v>0.445751768088</v>
       </c>
       <c r="R19">
-        <v>0.6967104016949998</v>
+        <v>2.674510608528</v>
       </c>
       <c r="S19">
-        <v>0.05828746719895335</v>
+        <v>0.06771879579200601</v>
       </c>
       <c r="T19">
-        <v>0.04315034093667101</v>
+        <v>0.0588483681546944</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.016601</v>
+      </c>
+      <c r="H20">
+        <v>0.049803</v>
+      </c>
+      <c r="I20">
+        <v>0.01985988063255891</v>
+      </c>
+      <c r="J20">
+        <v>0.02429364861793076</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.105315</v>
-      </c>
-      <c r="H20">
-        <v>0.315945</v>
-      </c>
-      <c r="I20">
-        <v>0.2478185620962198</v>
-      </c>
-      <c r="J20">
-        <v>0.2612761094176663</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2314755</v>
+        <v>0.7073339999999999</v>
       </c>
       <c r="N20">
-        <v>0.462951</v>
+        <v>1.414668</v>
       </c>
       <c r="O20">
-        <v>0.04937823590113709</v>
+        <v>0.0898252225897184</v>
       </c>
       <c r="P20">
-        <v>0.0346719884939725</v>
+        <v>0.0638127393172816</v>
       </c>
       <c r="Q20">
-        <v>0.0243778422825</v>
+        <v>0.011742451734</v>
       </c>
       <c r="R20">
-        <v>0.146267053695</v>
+        <v>0.07045471040399999</v>
       </c>
       <c r="S20">
-        <v>0.01223684341986773</v>
+        <v>0.001783918198424842</v>
       </c>
       <c r="T20">
-        <v>0.009058962259479228</v>
+        <v>0.001550244266321654</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H21">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I21">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J21">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -1745,22 +1745,22 @@
         <v>0.56656</v>
       </c>
       <c r="O21">
-        <v>0.0402860969910397</v>
+        <v>0.0239827192012217</v>
       </c>
       <c r="P21">
-        <v>0.04243162192358384</v>
+        <v>0.02555634649797625</v>
       </c>
       <c r="Q21">
-        <v>0.0198890888</v>
+        <v>0.003135154186666667</v>
       </c>
       <c r="R21">
-        <v>0.1790017992</v>
+        <v>0.02821638768</v>
       </c>
       <c r="S21">
-        <v>0.009983642628788304</v>
+        <v>0.0004762939405804417</v>
       </c>
       <c r="T21">
-        <v>0.01108636909247534</v>
+        <v>0.0006208569017799202</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H22">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I22">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J22">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.865619666666667</v>
+        <v>1.534638333333333</v>
       </c>
       <c r="N22">
-        <v>5.596859</v>
+        <v>4.603915</v>
       </c>
       <c r="O22">
-        <v>0.3979730381939661</v>
+        <v>0.1948856267143685</v>
       </c>
       <c r="P22">
-        <v>0.419167969937178</v>
+        <v>0.2076730566704856</v>
       </c>
       <c r="Q22">
-        <v>0.196477735195</v>
+        <v>0.02547653097166667</v>
       </c>
       <c r="R22">
-        <v>1.768299616755</v>
+        <v>0.229288778745</v>
       </c>
       <c r="S22">
-        <v>0.09862510607829264</v>
+        <v>0.003870405283548793</v>
       </c>
       <c r="T22">
-        <v>0.1095185763776872</v>
+        <v>0.005045136266164398</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H23">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I23">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J23">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.479631</v>
+        <v>0.7472894999999999</v>
       </c>
       <c r="N23">
-        <v>0.9592620000000001</v>
+        <v>1.494579</v>
       </c>
       <c r="O23">
-        <v>0.1023146409166339</v>
+        <v>0.09489922112673696</v>
       </c>
       <c r="P23">
-        <v>0.0718424218258629</v>
+        <v>0.06741735878388669</v>
       </c>
       <c r="Q23">
-        <v>0.050512338765</v>
+        <v>0.0124057529895</v>
       </c>
       <c r="R23">
-        <v>0.30307403259</v>
+        <v>0.074434517937</v>
       </c>
       <c r="S23">
-        <v>0.02535546719335126</v>
+        <v>0.001884687203699809</v>
       </c>
       <c r="T23">
-        <v>0.01877070846580429</v>
+        <v>0.001637813625044711</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H24">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I24">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J24">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1539196666666667</v>
+        <v>3.722499666666667</v>
       </c>
       <c r="N24">
-        <v>0.461759</v>
+        <v>11.167499</v>
       </c>
       <c r="O24">
-        <v>0.03283406498956069</v>
+        <v>0.4727248529668953</v>
       </c>
       <c r="P24">
-        <v>0.03458271552494379</v>
+        <v>0.5037427173817483</v>
       </c>
       <c r="Q24">
-        <v>0.016210049695</v>
+        <v>0.06179721696633335</v>
       </c>
       <c r="R24">
-        <v>0.145890447255</v>
+        <v>0.556174952697</v>
       </c>
       <c r="S24">
-        <v>0.00813689077348676</v>
+        <v>0.009388259151966505</v>
       </c>
       <c r="T24">
-        <v>0.009035637365455242</v>
+        <v>0.01223774856991379</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.105315</v>
+        <v>0.016601</v>
       </c>
       <c r="H25">
-        <v>0.315945</v>
+        <v>0.049803</v>
       </c>
       <c r="I25">
-        <v>0.2478185620962198</v>
+        <v>0.01985988063255891</v>
       </c>
       <c r="J25">
-        <v>0.2612761094176663</v>
+        <v>0.02429364861793076</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,400 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.768305</v>
+        <v>0.973944</v>
       </c>
       <c r="N25">
-        <v>5.304914999999999</v>
+        <v>2.921832</v>
       </c>
       <c r="O25">
-        <v>0.3772139230076626</v>
+        <v>0.1236823574010591</v>
       </c>
       <c r="P25">
-        <v>0.3973032822944591</v>
+        <v>0.1317977813486214</v>
       </c>
       <c r="Q25">
-        <v>0.186229041075</v>
+        <v>0.016168444344</v>
       </c>
       <c r="R25">
-        <v>1.676061369675</v>
+        <v>0.145515999096</v>
       </c>
       <c r="S25">
-        <v>0.0934806120024331</v>
+        <v>0.002456316854338522</v>
       </c>
       <c r="T25">
-        <v>0.1038058558567651</v>
+        <v>0.003201848988706277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.01873</v>
+      </c>
+      <c r="I26">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J26">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.7073339999999999</v>
+      </c>
+      <c r="N26">
+        <v>1.414668</v>
+      </c>
+      <c r="O26">
+        <v>0.0898252225897184</v>
+      </c>
+      <c r="P26">
+        <v>0.0638127393172816</v>
+      </c>
+      <c r="Q26">
+        <v>0.004416121939999999</v>
+      </c>
+      <c r="R26">
+        <v>0.02649673164</v>
+      </c>
+      <c r="S26">
+        <v>0.0006708990995823</v>
+      </c>
+      <c r="T26">
+        <v>0.000583018595430086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.01873</v>
+      </c>
+      <c r="I27">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J27">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M27">
+        <v>0.1888533333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.56656</v>
+      </c>
+      <c r="O27">
+        <v>0.0239827192012217</v>
+      </c>
+      <c r="P27">
+        <v>0.02555634649797625</v>
+      </c>
+      <c r="Q27">
+        <v>0.001179074311111111</v>
+      </c>
+      <c r="R27">
+        <v>0.0106116688</v>
+      </c>
+      <c r="S27">
+        <v>0.0001791254644714509</v>
+      </c>
+      <c r="T27">
+        <v>0.0002334929576599382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.01873</v>
+      </c>
+      <c r="I28">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J28">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1.534638333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.603915</v>
+      </c>
+      <c r="O28">
+        <v>0.1948856267143685</v>
+      </c>
+      <c r="P28">
+        <v>0.2076730566704856</v>
+      </c>
+      <c r="Q28">
+        <v>0.009581258661111111</v>
+      </c>
+      <c r="R28">
+        <v>0.08623132794999999</v>
+      </c>
+      <c r="S28">
+        <v>0.001455588839243999</v>
+      </c>
+      <c r="T28">
+        <v>0.001897383737229869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.01873</v>
+      </c>
+      <c r="I29">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J29">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.7472894999999999</v>
+      </c>
+      <c r="N29">
+        <v>1.494579</v>
+      </c>
+      <c r="O29">
+        <v>0.09489922112673696</v>
+      </c>
+      <c r="P29">
+        <v>0.06741735878388669</v>
+      </c>
+      <c r="Q29">
+        <v>0.004665577444999999</v>
+      </c>
+      <c r="R29">
+        <v>0.02799346467</v>
+      </c>
+      <c r="S29">
+        <v>0.000708796484655491</v>
+      </c>
+      <c r="T29">
+        <v>0.0006159518341683721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.01873</v>
+      </c>
+      <c r="I30">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J30">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>3.722499666666667</v>
+      </c>
+      <c r="N30">
+        <v>11.167499</v>
+      </c>
+      <c r="O30">
+        <v>0.4727248529668953</v>
+      </c>
+      <c r="P30">
+        <v>0.5037427173817483</v>
+      </c>
+      <c r="Q30">
+        <v>0.02324080625222223</v>
+      </c>
+      <c r="R30">
+        <v>0.20916725627</v>
+      </c>
+      <c r="S30">
+        <v>0.003530753045325233</v>
+      </c>
+      <c r="T30">
+        <v>0.004602394046834233</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.006243333333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.01873</v>
+      </c>
+      <c r="I31">
+        <v>0.007468938904239271</v>
+      </c>
+      <c r="J31">
+        <v>0.009136398181110436</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.973944</v>
+      </c>
+      <c r="N31">
+        <v>2.921832</v>
+      </c>
+      <c r="O31">
+        <v>0.1236823574010591</v>
+      </c>
+      <c r="P31">
+        <v>0.1317977813486214</v>
+      </c>
+      <c r="Q31">
+        <v>0.00608065704</v>
+      </c>
+      <c r="R31">
+        <v>0.05472591336</v>
+      </c>
+      <c r="S31">
+        <v>0.0009237759709607959</v>
+      </c>
+      <c r="T31">
+        <v>0.001204157009787936</v>
       </c>
     </row>
   </sheetData>
